--- a/PtronN/src/test/resources/testdata.xlsx
+++ b/PtronN/src/test/resources/testdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prasadk\git\TheBoys\Ptron\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asfak Ansari\git\Grinchh\PtronN\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83094B4B-0661-47DD-8B50-AAAC2025D33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{0E68CAD5-05CE-4B21-A9F5-19436134121D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="validation" sheetId="1" r:id="rId1"/>
@@ -18,6 +17,8 @@
     <sheet name="lead" sheetId="3" r:id="rId3"/>
     <sheet name="contact" sheetId="5" r:id="rId4"/>
     <sheet name="potential" sheetId="4" r:id="rId5"/>
+    <sheet name="account" sheetId="6" r:id="rId6"/>
+    <sheet name="purchaseorder" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="783">
   <si>
     <t>password</t>
   </si>
@@ -2279,12 +2280,111 @@
   </si>
   <si>
     <t>12/04/1999</t>
+  </si>
+  <si>
+    <t>Acc Name</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>ParrentAcc</t>
+  </si>
+  <si>
+    <t>Annual Rev</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Asfak</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>Md</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>Ara</t>
+  </si>
+  <si>
+    <t>Ramgarh</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>829112</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ListPrice</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>I need urgent</t>
+  </si>
+  <si>
+    <t>girish</t>
+  </si>
+  <si>
+    <t>Gal</t>
+  </si>
+  <si>
+    <t>Hzb</t>
+  </si>
+  <si>
+    <t>JH</t>
+  </si>
+  <si>
+    <t>825312</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>bluewings</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2637,7 +2737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA96745-8862-4306-BC1B-AF5AAA95543A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C657"/>
   <sheetViews>
     <sheetView topLeftCell="A554" zoomScale="174" workbookViewId="0">
@@ -9886,7 +9986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0DDD2D0-9682-42A8-B538-BEFF07797664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
@@ -10013,7 +10113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50963FD-6FAD-47D1-AFB1-1BF160F84073}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
@@ -10113,10 +10213,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D217A35-DD35-44D8-8289-9F4FCF9172FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -10201,7 +10301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFCC10-4261-429E-A10A-84EEE17D75DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10257,4 +10357,169 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F1" t="s">
+        <v>755</v>
+      </c>
+      <c r="G1" t="s">
+        <v>756</v>
+      </c>
+      <c r="H1" t="s">
+        <v>757</v>
+      </c>
+      <c r="I1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2" t="s">
+        <v>764</v>
+      </c>
+      <c r="G2" t="s">
+        <v>765</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="I2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G1" t="s">
+        <v>758</v>
+      </c>
+      <c r="H1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1" t="s">
+        <v>771</v>
+      </c>
+      <c r="J1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G2" t="s">
+        <v>779</v>
+      </c>
+      <c r="H2" t="s">
+        <v>780</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PtronN/src/test/resources/testdata.xlsx
+++ b/PtronN/src/test/resources/testdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asfak Ansari\git\Grinchh\PtronN\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Selenium Webriver\FrameWork\Backup\PtronN\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446C2530-5D83-4977-9680-33F5227C5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validation" sheetId="1" r:id="rId1"/>
@@ -19,6 +20,9 @@
     <sheet name="potential" sheetId="4" r:id="rId5"/>
     <sheet name="account" sheetId="6" r:id="rId6"/>
     <sheet name="purchaseorder" sheetId="7" r:id="rId7"/>
+    <sheet name="vendor" sheetId="8" r:id="rId8"/>
+    <sheet name="product" sheetId="9" r:id="rId9"/>
+    <sheet name="invoice" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="830">
   <si>
     <t>password</t>
   </si>
@@ -2379,13 +2383,154 @@
   </si>
   <si>
     <t>50</t>
+  </si>
+  <si>
+    <t>gla count</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>vendore name</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>phnone</t>
+  </si>
+  <si>
+    <t>www.samsung.com</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>lap</t>
+  </si>
+  <si>
+    <t>samsung</t>
+  </si>
+  <si>
+    <t>sam@gmail.com</t>
+  </si>
+  <si>
+    <t>karnataka</t>
+  </si>
+  <si>
+    <t>bglr</t>
+  </si>
+  <si>
+    <t>hlo</t>
+  </si>
+  <si>
+    <t>prodName</t>
+  </si>
+  <si>
+    <t>produCode</t>
+  </si>
+  <si>
+    <t>vnName</t>
+  </si>
+  <si>
+    <t>indexCat</t>
+  </si>
+  <si>
+    <t>indexM</t>
+  </si>
+  <si>
+    <t>ssDate</t>
+  </si>
+  <si>
+    <t>ssEndDate</t>
+  </si>
+  <si>
+    <t>supStart</t>
+  </si>
+  <si>
+    <t>saleEnd</t>
+  </si>
+  <si>
+    <t>unitprice</t>
+  </si>
+  <si>
+    <t>indexU</t>
+  </si>
+  <si>
+    <t>qtyStock</t>
+  </si>
+  <si>
+    <t>qtyDemand</t>
+  </si>
+  <si>
+    <t>15saa</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>01/01/2027</t>
+  </si>
+  <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>hellopro</t>
+  </si>
+  <si>
+    <t>12/11/2026</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>accName</t>
+  </si>
+  <si>
+    <t>listPrice</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>no refund</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>SONY PLAYSTATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2395,6 +2540,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2417,15 +2570,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2737,7 +2893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C657"/>
   <sheetViews>
     <sheetView topLeftCell="A554" zoomScale="174" workbookViewId="0">
@@ -9985,8 +10141,72 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55270884-F8D9-4DEB-81BF-3472001DB335}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView zoomScale="133" workbookViewId="0">
@@ -10113,7 +10333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
@@ -10213,7 +10433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10301,7 +10521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10360,7 +10580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10437,10 +10657,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -10522,4 +10742,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4DC77-DCE0-4510-877A-8E54DEB3D6DB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J1" t="s">
+        <v>738</v>
+      </c>
+      <c r="K1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G2" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" t="s">
+        <v>795</v>
+      </c>
+      <c r="I2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{157F74EF-AF50-4C9A-AD23-03F5C2C7CA5B}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7C8979B8-4FCF-425E-889B-F1634B71312D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDAA5F6-59A5-46C2-91A2-2AB506189DA3}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" t="s">
+        <v>806</v>
+      </c>
+      <c r="K1" t="s">
+        <v>807</v>
+      </c>
+      <c r="L1" t="s">
+        <v>808</v>
+      </c>
+      <c r="M1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="N2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PtronN/src/test/resources/testdata.xlsx
+++ b/PtronN/src/test/resources/testdata.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\Selenium Webriver\FrameWork\Backup\PtronN\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446C2530-5D83-4977-9680-33F5227C5B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9ABD1D-25E3-47EA-8C4F-3F43484B3A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="validation" sheetId="1" r:id="rId1"/>
-    <sheet name="campaign" sheetId="2" r:id="rId2"/>
-    <sheet name="lead" sheetId="3" r:id="rId3"/>
-    <sheet name="contact" sheetId="5" r:id="rId4"/>
-    <sheet name="potential" sheetId="4" r:id="rId5"/>
-    <sheet name="account" sheetId="6" r:id="rId6"/>
-    <sheet name="purchaseorder" sheetId="7" r:id="rId7"/>
-    <sheet name="vendor" sheetId="8" r:id="rId8"/>
-    <sheet name="product" sheetId="9" r:id="rId9"/>
-    <sheet name="invoice" sheetId="10" r:id="rId10"/>
+    <sheet name="salesorder" sheetId="11" r:id="rId1"/>
+    <sheet name="pricebook" sheetId="12" r:id="rId2"/>
+    <sheet name="validation" sheetId="1" r:id="rId3"/>
+    <sheet name="campaign" sheetId="2" r:id="rId4"/>
+    <sheet name="lead" sheetId="3" r:id="rId5"/>
+    <sheet name="contact" sheetId="5" r:id="rId6"/>
+    <sheet name="potential" sheetId="4" r:id="rId7"/>
+    <sheet name="account" sheetId="6" r:id="rId8"/>
+    <sheet name="purchaseorder" sheetId="7" r:id="rId9"/>
+    <sheet name="vendor" sheetId="8" r:id="rId10"/>
+    <sheet name="product" sheetId="9" r:id="rId11"/>
+    <sheet name="invoice" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="839">
   <si>
     <t>password</t>
   </si>
@@ -2524,6 +2526,33 @@
   </si>
   <si>
     <t>SONY PLAYSTATION</t>
+  </si>
+  <si>
+    <t>AccnName</t>
+  </si>
+  <si>
+    <t>ProdName</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>SalesOrder</t>
+  </si>
+  <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t>58999</t>
+  </si>
+  <si>
+    <t>pbname</t>
+  </si>
+  <si>
+    <t>sony</t>
   </si>
 </sst>
 </file>
@@ -2893,6 +2922,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B724D644-6C74-4275-886A-D1C414882E61}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1" t="s">
+        <v>832</v>
+      </c>
+      <c r="E1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4DC77-DCE0-4510-877A-8E54DEB3D6DB}">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C1" t="s">
+        <v>786</v>
+      </c>
+      <c r="D1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F1" t="s">
+        <v>783</v>
+      </c>
+      <c r="G1" t="s">
+        <v>737</v>
+      </c>
+      <c r="H1" t="s">
+        <v>736</v>
+      </c>
+      <c r="I1" t="s">
+        <v>739</v>
+      </c>
+      <c r="J1" t="s">
+        <v>738</v>
+      </c>
+      <c r="K1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D2" t="s">
+        <v>792</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G2" t="s">
+        <v>794</v>
+      </c>
+      <c r="H2" t="s">
+        <v>795</v>
+      </c>
+      <c r="I2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="K2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{157F74EF-AF50-4C9A-AD23-03F5C2C7CA5B}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{7C8979B8-4FCF-425E-889B-F1634B71312D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDAA5F6-59A5-46C2-91A2-2AB506189DA3}">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F1" t="s">
+        <v>802</v>
+      </c>
+      <c r="G1" t="s">
+        <v>803</v>
+      </c>
+      <c r="H1" t="s">
+        <v>804</v>
+      </c>
+      <c r="I1" t="s">
+        <v>805</v>
+      </c>
+      <c r="J1" t="s">
+        <v>806</v>
+      </c>
+      <c r="K1" t="s">
+        <v>807</v>
+      </c>
+      <c r="L1" t="s">
+        <v>808</v>
+      </c>
+      <c r="M1" t="s">
+        <v>809</v>
+      </c>
+      <c r="N1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="N2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55270884-F8D9-4DEB-81BF-3472001DB335}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1" t="s">
+        <v>772</v>
+      </c>
+      <c r="E1" t="s">
+        <v>822</v>
+      </c>
+      <c r="F1" t="s">
+        <v>823</v>
+      </c>
+      <c r="G1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F63E0C2-DB0F-4F82-AD2C-E25423915363}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C657"/>
   <sheetViews>
@@ -10141,71 +10510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55270884-F8D9-4DEB-81BF-3472001DB335}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>820</v>
-      </c>
-      <c r="B1" t="s">
-        <v>821</v>
-      </c>
-      <c r="C1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D1" t="s">
-        <v>772</v>
-      </c>
-      <c r="E1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F1" t="s">
-        <v>823</v>
-      </c>
-      <c r="G1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F2" t="s">
-        <v>825</v>
-      </c>
-      <c r="G2" t="s">
-        <v>826</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -10332,7 +10637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -10432,7 +10737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -10520,7 +10825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -10579,7 +10884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -10656,7 +10961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -10742,206 +11047,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA4DC77-DCE0-4510-877A-8E54DEB3D6DB}">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D1" t="s">
-        <v>785</v>
-      </c>
-      <c r="E1" t="s">
-        <v>784</v>
-      </c>
-      <c r="F1" t="s">
-        <v>783</v>
-      </c>
-      <c r="G1" t="s">
-        <v>737</v>
-      </c>
-      <c r="H1" t="s">
-        <v>736</v>
-      </c>
-      <c r="I1" t="s">
-        <v>739</v>
-      </c>
-      <c r="J1" t="s">
-        <v>738</v>
-      </c>
-      <c r="K1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="C2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D2" t="s">
-        <v>792</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G2" t="s">
-        <v>794</v>
-      </c>
-      <c r="H2" t="s">
-        <v>795</v>
-      </c>
-      <c r="I2" t="s">
-        <v>767</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="K2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{157F74EF-AF50-4C9A-AD23-03F5C2C7CA5B}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{7C8979B8-4FCF-425E-889B-F1634B71312D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CDAA5F6-59A5-46C2-91A2-2AB506189DA3}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>798</v>
-      </c>
-      <c r="B1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D1" t="s">
-        <v>800</v>
-      </c>
-      <c r="E1" t="s">
-        <v>801</v>
-      </c>
-      <c r="F1" t="s">
-        <v>802</v>
-      </c>
-      <c r="G1" t="s">
-        <v>803</v>
-      </c>
-      <c r="H1" t="s">
-        <v>804</v>
-      </c>
-      <c r="I1" t="s">
-        <v>805</v>
-      </c>
-      <c r="J1" t="s">
-        <v>806</v>
-      </c>
-      <c r="K1" t="s">
-        <v>807</v>
-      </c>
-      <c r="L1" t="s">
-        <v>808</v>
-      </c>
-      <c r="M1" t="s">
-        <v>809</v>
-      </c>
-      <c r="N1" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="B2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="N2" t="s">
-        <v>817</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>